--- a/Code/Results/Cases/Case_3_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018146373774159</v>
+        <v>1.045206739554367</v>
       </c>
       <c r="D2">
-        <v>1.033730482374833</v>
+        <v>1.047739943310706</v>
       </c>
       <c r="E2">
-        <v>1.027752269555195</v>
+        <v>1.052675373424201</v>
       </c>
       <c r="F2">
-        <v>1.029370007093362</v>
+        <v>1.06289267678469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053860130510297</v>
+        <v>1.044393263772516</v>
       </c>
       <c r="J2">
-        <v>1.039797552822483</v>
+        <v>1.0502677111659</v>
       </c>
       <c r="K2">
-        <v>1.044739078111104</v>
+        <v>1.050501737481981</v>
       </c>
       <c r="L2">
-        <v>1.038838050366782</v>
+        <v>1.05542344964904</v>
       </c>
       <c r="M2">
-        <v>1.04043479046862</v>
+        <v>1.065612792522559</v>
       </c>
       <c r="N2">
-        <v>1.016539596648104</v>
+        <v>1.020550180742235</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023488241382823</v>
+        <v>1.046293951998988</v>
       </c>
       <c r="D3">
-        <v>1.037862855981995</v>
+        <v>1.04858944930405</v>
       </c>
       <c r="E3">
-        <v>1.032583596742781</v>
+        <v>1.053715903083421</v>
       </c>
       <c r="F3">
-        <v>1.035210911313303</v>
+        <v>1.06418324364314</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055936352445308</v>
+        <v>1.044737263987275</v>
       </c>
       <c r="J3">
-        <v>1.043358447926954</v>
+        <v>1.051001811222613</v>
       </c>
       <c r="K3">
-        <v>1.048033153740446</v>
+        <v>1.051163050957941</v>
       </c>
       <c r="L3">
-        <v>1.042815871356365</v>
+        <v>1.056276288301577</v>
       </c>
       <c r="M3">
-        <v>1.045412244283844</v>
+        <v>1.066717069276222</v>
       </c>
       <c r="N3">
-        <v>1.017775432376325</v>
+        <v>1.020800729508543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02686280818966</v>
+        <v>1.046997246788493</v>
       </c>
       <c r="D4">
-        <v>1.040475084353277</v>
+        <v>1.049138851339466</v>
       </c>
       <c r="E4">
-        <v>1.035641171129011</v>
+        <v>1.054389381715812</v>
       </c>
       <c r="F4">
-        <v>1.038909340303855</v>
+        <v>1.065018985639093</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057236468817559</v>
+        <v>1.044958384590329</v>
       </c>
       <c r="J4">
-        <v>1.045603457179478</v>
+        <v>1.051476047858435</v>
       </c>
       <c r="K4">
-        <v>1.050108371261735</v>
+        <v>1.051590037097833</v>
       </c>
       <c r="L4">
-        <v>1.045327657648997</v>
+        <v>1.056827714120082</v>
       </c>
       <c r="M4">
-        <v>1.048559792411118</v>
+        <v>1.067431713460054</v>
       </c>
       <c r="N4">
-        <v>1.018553994369272</v>
+        <v>1.020962434311278</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028262666631027</v>
+        <v>1.047292863860734</v>
       </c>
       <c r="D5">
-        <v>1.04155906089018</v>
+        <v>1.049369751732415</v>
       </c>
       <c r="E5">
-        <v>1.03691082499979</v>
+        <v>1.05467255725176</v>
       </c>
       <c r="F5">
-        <v>1.040445611002861</v>
+        <v>1.065370490438074</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05777299667254</v>
+        <v>1.045050991798726</v>
       </c>
       <c r="J5">
-        <v>1.046533634525653</v>
+        <v>1.051675231723966</v>
       </c>
       <c r="K5">
-        <v>1.050967809847835</v>
+        <v>1.051769320146046</v>
       </c>
       <c r="L5">
-        <v>1.046369320545551</v>
+        <v>1.05705943401484</v>
       </c>
       <c r="M5">
-        <v>1.049866226806395</v>
+        <v>1.067732175486878</v>
       </c>
       <c r="N5">
-        <v>1.018876426575147</v>
+        <v>1.021030315206699</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028496628848701</v>
+        <v>1.047342496475098</v>
       </c>
       <c r="D6">
-        <v>1.041740248192539</v>
+        <v>1.049408516924979</v>
       </c>
       <c r="E6">
-        <v>1.037123100792173</v>
+        <v>1.054720106330718</v>
       </c>
       <c r="F6">
-        <v>1.040702493642275</v>
+        <v>1.065429518988784</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05786250258655</v>
+        <v>1.045066520325887</v>
       </c>
       <c r="J6">
-        <v>1.04668903128715</v>
+        <v>1.051708664720908</v>
       </c>
       <c r="K6">
-        <v>1.051111365698482</v>
+        <v>1.051799409551207</v>
       </c>
       <c r="L6">
-        <v>1.046543398510854</v>
+        <v>1.057098334983691</v>
       </c>
       <c r="M6">
-        <v>1.050084618411276</v>
+        <v>1.067782625910985</v>
       </c>
       <c r="N6">
-        <v>1.018930283440892</v>
+        <v>1.021041706856003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026881586030675</v>
+        <v>1.04700119702602</v>
       </c>
       <c r="D7">
-        <v>1.040489623589801</v>
+        <v>1.049141936909839</v>
       </c>
       <c r="E7">
-        <v>1.035658197328097</v>
+        <v>1.054393165343264</v>
       </c>
       <c r="F7">
-        <v>1.038929939826134</v>
+        <v>1.065023681837792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057243676955759</v>
+        <v>1.044959623394885</v>
       </c>
       <c r="J7">
-        <v>1.045615939110412</v>
+        <v>1.051478710090311</v>
       </c>
       <c r="K7">
-        <v>1.050119905510918</v>
+        <v>1.051592433558444</v>
       </c>
       <c r="L7">
-        <v>1.045341631812724</v>
+        <v>1.056830810763063</v>
       </c>
       <c r="M7">
-        <v>1.048577314111145</v>
+        <v>1.06743572814661</v>
       </c>
       <c r="N7">
-        <v>1.01855832165315</v>
+        <v>1.020963341731248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01996916479969</v>
+        <v>1.045574210926877</v>
       </c>
       <c r="D8">
-        <v>1.035140162677188</v>
+        <v>1.048027096906607</v>
       </c>
       <c r="E8">
-        <v>1.029399667359305</v>
+        <v>1.053026987009093</v>
       </c>
       <c r="F8">
-        <v>1.031361272881961</v>
+        <v>1.063328694127599</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054570980626905</v>
+        <v>1.04450982483505</v>
       </c>
       <c r="J8">
-        <v>1.041013546785971</v>
+        <v>1.050515964445542</v>
       </c>
       <c r="K8">
-        <v>1.045864280856301</v>
+        <v>1.050725423725993</v>
       </c>
       <c r="L8">
-        <v>1.040195599684826</v>
+        <v>1.05571175728175</v>
       </c>
       <c r="M8">
-        <v>1.042132553226394</v>
+        <v>1.065985967168878</v>
       </c>
       <c r="N8">
-        <v>1.016961733758829</v>
+        <v>1.020634941230905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007121310244003</v>
+        <v>1.04305807472065</v>
       </c>
       <c r="D9">
-        <v>1.025213985176965</v>
+        <v>1.046060419947888</v>
       </c>
       <c r="E9">
-        <v>1.017813185172307</v>
+        <v>1.050621010599323</v>
       </c>
       <c r="F9">
-        <v>1.017362772843644</v>
+        <v>1.060346905872601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049513296072158</v>
+        <v>1.043705952413457</v>
       </c>
       <c r="J9">
-        <v>1.032425078832258</v>
+        <v>1.048813529789904</v>
       </c>
       <c r="K9">
-        <v>1.037910812273755</v>
+        <v>1.049190524858221</v>
       </c>
       <c r="L9">
-        <v>1.030623718823616</v>
+        <v>1.053736619009578</v>
       </c>
       <c r="M9">
-        <v>1.030180294903008</v>
+        <v>1.063432054170899</v>
       </c>
       <c r="N9">
-        <v>1.013978119258641</v>
+        <v>1.020053062416614</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.998047645579614</v>
+        <v>1.041379514375625</v>
       </c>
       <c r="D10">
-        <v>1.018219325157964</v>
+        <v>1.044747825365715</v>
       </c>
       <c r="E10">
-        <v>1.00966421579714</v>
+        <v>1.04901793566044</v>
       </c>
       <c r="F10">
-        <v>1.007523565154792</v>
+        <v>1.058362333906462</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045883043871665</v>
+        <v>1.043162448406282</v>
       </c>
       <c r="J10">
-        <v>1.026338938895692</v>
+        <v>1.047674544463745</v>
       </c>
       <c r="K10">
-        <v>1.032267235595625</v>
+        <v>1.048162457411649</v>
       </c>
       <c r="L10">
-        <v>1.023861144981665</v>
+        <v>1.05241765848723</v>
       </c>
       <c r="M10">
-        <v>1.02175829512469</v>
+        <v>1.061729892103281</v>
       </c>
       <c r="N10">
-        <v>1.011861607751425</v>
+        <v>1.019662991978727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9939831884139144</v>
+        <v>1.040652396072372</v>
       </c>
       <c r="D11">
-        <v>1.015090878905929</v>
+        <v>1.044179104780985</v>
       </c>
       <c r="E11">
-        <v>1.006022652738941</v>
+        <v>1.048323993561367</v>
       </c>
       <c r="F11">
-        <v>1.003127425469451</v>
+        <v>1.057503754956346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044243727451822</v>
+        <v>1.042925302002701</v>
       </c>
       <c r="J11">
-        <v>1.02360843380934</v>
+        <v>1.047180389130922</v>
       </c>
       <c r="K11">
-        <v>1.02973370642168</v>
+        <v>1.047716149533988</v>
       </c>
       <c r="L11">
-        <v>1.020831877439543</v>
+        <v>1.051846003335379</v>
       </c>
       <c r="M11">
-        <v>1.01799060314794</v>
+        <v>1.060992929272824</v>
       </c>
       <c r="N11">
-        <v>1.010911684398193</v>
+        <v>1.019493575957855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9924517100754927</v>
+        <v>1.040382267018086</v>
       </c>
       <c r="D12">
-        <v>1.013912894831986</v>
+        <v>1.043967802461428</v>
       </c>
       <c r="E12">
-        <v>1.004651884851029</v>
+        <v>1.048066261759222</v>
       </c>
       <c r="F12">
-        <v>1.001472663586517</v>
+        <v>1.057184952195822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043624115868246</v>
+        <v>1.042836943654871</v>
       </c>
       <c r="J12">
-        <v>1.022578998607202</v>
+        <v>1.046996691873676</v>
       </c>
       <c r="K12">
-        <v>1.028778313243998</v>
+        <v>1.047550197976879</v>
       </c>
       <c r="L12">
-        <v>1.019690501482913</v>
+        <v>1.051633583723628</v>
       </c>
       <c r="M12">
-        <v>1.016571703967939</v>
+        <v>1.060719199884361</v>
       </c>
       <c r="N12">
-        <v>1.01055351026741</v>
+        <v>1.019430570116187</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9927812258560575</v>
+        <v>1.040440212671512</v>
       </c>
       <c r="D13">
-        <v>1.014166314055448</v>
+        <v>1.044013129982776</v>
       </c>
       <c r="E13">
-        <v>1.004946759215113</v>
+        <v>1.048121544798307</v>
       </c>
       <c r="F13">
-        <v>1.001828628697492</v>
+        <v>1.057253331441032</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043757518428189</v>
+        <v>1.042855909117119</v>
       </c>
       <c r="J13">
-        <v>1.022800519410183</v>
+        <v>1.047036102174709</v>
       </c>
       <c r="K13">
-        <v>1.028983910864023</v>
+        <v>1.047585802982856</v>
       </c>
       <c r="L13">
-        <v>1.019936079191121</v>
+        <v>1.051679152149823</v>
       </c>
       <c r="M13">
-        <v>1.016876962253711</v>
+        <v>1.060777915271268</v>
       </c>
       <c r="N13">
-        <v>1.010630586209234</v>
+        <v>1.019444088578029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9938570483424218</v>
+        <v>1.040630068044692</v>
       </c>
       <c r="D14">
-        <v>1.014993837388872</v>
+        <v>1.044161639572271</v>
       </c>
       <c r="E14">
-        <v>1.00590972148983</v>
+        <v>1.048302688779606</v>
       </c>
       <c r="F14">
-        <v>1.002991096729493</v>
+        <v>1.057477400351303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044192731854494</v>
+        <v>1.042918003816966</v>
       </c>
       <c r="J14">
-        <v>1.023523656060469</v>
+        <v>1.047165207639773</v>
       </c>
       <c r="K14">
-        <v>1.029655030680937</v>
+        <v>1.047702435457218</v>
       </c>
       <c r="L14">
-        <v>1.020737866887715</v>
+        <v>1.051828446330046</v>
       </c>
       <c r="M14">
-        <v>1.01787372006743</v>
+        <v>1.060970302490661</v>
       </c>
       <c r="N14">
-        <v>1.010882188199256</v>
+        <v>1.019488369450662</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945169708988562</v>
+        <v>1.040747038212563</v>
       </c>
       <c r="D15">
-        <v>1.015501559524312</v>
+        <v>1.044253134043947</v>
       </c>
       <c r="E15">
-        <v>1.006500595858592</v>
+        <v>1.048414301407793</v>
       </c>
       <c r="F15">
-        <v>1.003704391980263</v>
+        <v>1.057615471355412</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044459445871947</v>
+        <v>1.042956226408992</v>
       </c>
       <c r="J15">
-        <v>1.023967161255072</v>
+        <v>1.04724473441642</v>
       </c>
       <c r="K15">
-        <v>1.0300666050391</v>
+        <v>1.047774273643415</v>
       </c>
       <c r="L15">
-        <v>1.021229700727614</v>
+        <v>1.051920420586109</v>
       </c>
       <c r="M15">
-        <v>1.018485244219599</v>
+        <v>1.061088840080887</v>
       </c>
       <c r="N15">
-        <v>1.011036492642418</v>
+        <v>1.019515642125841</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9983144186731979</v>
+        <v>1.041427764590702</v>
       </c>
       <c r="D16">
-        <v>1.018424769026214</v>
+        <v>1.044785561898453</v>
       </c>
       <c r="E16">
-        <v>1.009903417458668</v>
+        <v>1.049063994452212</v>
       </c>
       <c r="F16">
-        <v>1.007812342403835</v>
+        <v>1.05841933071231</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045990372372093</v>
+        <v>1.043178148960976</v>
       </c>
       <c r="J16">
-        <v>1.02651807292859</v>
+        <v>1.047707319492427</v>
       </c>
       <c r="K16">
-        <v>1.032433415692097</v>
+        <v>1.048192053169799</v>
       </c>
       <c r="L16">
-        <v>1.024059976187567</v>
+        <v>1.052455585982146</v>
       </c>
       <c r="M16">
-        <v>1.022005693208701</v>
+        <v>1.061778803571326</v>
       </c>
       <c r="N16">
-        <v>1.011923920788404</v>
+        <v>1.019674224744315</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000659230033977</v>
+        <v>1.04185468755737</v>
       </c>
       <c r="D17">
-        <v>1.020231073932731</v>
+        <v>1.045119443630931</v>
       </c>
       <c r="E17">
-        <v>1.012006881155822</v>
+        <v>1.049471582664531</v>
       </c>
       <c r="F17">
-        <v>1.010351835464266</v>
+        <v>1.058923771163182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046932251186952</v>
+        <v>1.043316871464991</v>
       </c>
       <c r="J17">
-        <v>1.028092098554288</v>
+        <v>1.047997227486586</v>
       </c>
       <c r="K17">
-        <v>1.033893440011528</v>
+        <v>1.048453807567172</v>
       </c>
       <c r="L17">
-        <v>1.025807611260838</v>
+        <v>1.052791136866147</v>
       </c>
       <c r="M17">
-        <v>1.024180761789376</v>
+        <v>1.062211621176142</v>
       </c>
       <c r="N17">
-        <v>1.012471416968423</v>
+        <v>1.019773562013558</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002013946029909</v>
+        <v>1.042103676548579</v>
       </c>
       <c r="D18">
-        <v>1.021275109300838</v>
+        <v>1.045314156631049</v>
       </c>
       <c r="E18">
-        <v>1.01322297550444</v>
+        <v>1.049709341319932</v>
       </c>
       <c r="F18">
-        <v>1.011820090703506</v>
+        <v>1.059218075579955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047475171869546</v>
+        <v>1.043397611765371</v>
       </c>
       <c r="J18">
-        <v>1.02900108422439</v>
+        <v>1.048166232641035</v>
       </c>
       <c r="K18">
-        <v>1.034736440856942</v>
+        <v>1.048606373756444</v>
       </c>
       <c r="L18">
-        <v>1.026817300996817</v>
+        <v>1.052986806306676</v>
       </c>
       <c r="M18">
-        <v>1.025437866157156</v>
+        <v>1.062464084609166</v>
       </c>
       <c r="N18">
-        <v>1.012787555690934</v>
+        <v>1.019831454278427</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002473709266893</v>
+        <v>1.042188570657927</v>
       </c>
       <c r="D19">
-        <v>1.021629506021815</v>
+        <v>1.045380542878882</v>
       </c>
       <c r="E19">
-        <v>1.013635830246614</v>
+        <v>1.049790414184472</v>
       </c>
       <c r="F19">
-        <v>1.012318566811659</v>
+        <v>1.059318438182337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047659214382724</v>
+        <v>1.043425112586299</v>
       </c>
       <c r="J19">
-        <v>1.029309504702869</v>
+        <v>1.048223843230366</v>
       </c>
       <c r="K19">
-        <v>1.035022446628588</v>
+        <v>1.048658376118548</v>
       </c>
       <c r="L19">
-        <v>1.027159966577349</v>
+        <v>1.053053515783025</v>
       </c>
       <c r="M19">
-        <v>1.025864578738279</v>
+        <v>1.062550169553524</v>
       </c>
       <c r="N19">
-        <v>1.012894815720663</v>
+        <v>1.019851185655148</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000409005524648</v>
+        <v>1.041808885663695</v>
       </c>
       <c r="D20">
-        <v>1.02003826915638</v>
+        <v>1.045083624858285</v>
       </c>
       <c r="E20">
-        <v>1.011782326615103</v>
+        <v>1.049427850311506</v>
       </c>
       <c r="F20">
-        <v>1.010080725397406</v>
+        <v>1.05886964195403</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046831868795089</v>
+        <v>1.043302005872786</v>
       </c>
       <c r="J20">
-        <v>1.027924169794352</v>
+        <v>1.047966132754815</v>
       </c>
       <c r="K20">
-        <v>1.033737689229022</v>
+        <v>1.048425735253415</v>
       </c>
       <c r="L20">
-        <v>1.025621114310129</v>
+        <v>1.052755140786642</v>
       </c>
       <c r="M20">
-        <v>1.023948603555907</v>
+        <v>1.062165183099369</v>
       </c>
       <c r="N20">
-        <v>1.012413009583806</v>
+        <v>1.019762909183858</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935408579476018</v>
+        <v>1.04057416162022</v>
       </c>
       <c r="D21">
-        <v>1.014750600538157</v>
+        <v>1.04411790869764</v>
       </c>
       <c r="E21">
-        <v>1.005626663318463</v>
+        <v>1.048249345592985</v>
       </c>
       <c r="F21">
-        <v>1.002649394082697</v>
+        <v>1.057411414571351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044064872467674</v>
+        <v>1.042899725976206</v>
       </c>
       <c r="J21">
-        <v>1.023311137732643</v>
+        <v>1.047127193332802</v>
       </c>
       <c r="K21">
-        <v>1.029457805194913</v>
+        <v>1.047668094878364</v>
       </c>
       <c r="L21">
-        <v>1.020502215215336</v>
+        <v>1.051784485169682</v>
       </c>
       <c r="M21">
-        <v>1.017580746125951</v>
+        <v>1.060913648944758</v>
       </c>
       <c r="N21">
-        <v>1.010808247398598</v>
+        <v>1.019475331969113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9890959066974491</v>
+        <v>1.039797580954727</v>
       </c>
       <c r="D22">
-        <v>1.011333271825984</v>
+        <v>1.043510411036074</v>
       </c>
       <c r="E22">
-        <v>1.001650816033489</v>
+        <v>1.047508541373493</v>
       </c>
       <c r="F22">
-        <v>0.9978498439721382</v>
+        <v>1.056495214568705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042262944278895</v>
+        <v>1.042645224988807</v>
       </c>
       <c r="J22">
-        <v>1.020322265688639</v>
+        <v>1.046598873989195</v>
       </c>
       <c r="K22">
-        <v>1.026683508800335</v>
+        <v>1.047190735489253</v>
       </c>
       <c r="L22">
-        <v>1.017189640718457</v>
+        <v>1.051173723888449</v>
       </c>
       <c r="M22">
-        <v>1.013464016551469</v>
+        <v>1.060126825184279</v>
       </c>
       <c r="N22">
-        <v>1.009768259666159</v>
+        <v>1.019294074111159</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9914647684735525</v>
+        <v>1.040209286194477</v>
       </c>
       <c r="D23">
-        <v>1.013153998090521</v>
+        <v>1.043832486871297</v>
       </c>
       <c r="E23">
-        <v>1.003768903580224</v>
+        <v>1.047901240020433</v>
       </c>
       <c r="F23">
-        <v>1.000406751577908</v>
+        <v>1.056980848867402</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043224281526283</v>
+        <v>1.042780289867602</v>
       </c>
       <c r="J23">
-        <v>1.021915434150316</v>
+        <v>1.046879026369832</v>
       </c>
       <c r="K23">
-        <v>1.028162415619188</v>
+        <v>1.047443887760636</v>
       </c>
       <c r="L23">
-        <v>1.018954975841267</v>
+        <v>1.051497544975125</v>
       </c>
       <c r="M23">
-        <v>1.015657530168427</v>
+        <v>1.060543929574195</v>
       </c>
       <c r="N23">
-        <v>1.010322624771189</v>
+        <v>1.01939020470984</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00052211119612</v>
+        <v>1.041829581653904</v>
       </c>
       <c r="D24">
-        <v>1.020125418782775</v>
+        <v>1.045099809926452</v>
       </c>
       <c r="E24">
-        <v>1.011883826499873</v>
+        <v>1.049447611019322</v>
       </c>
       <c r="F24">
-        <v>1.010203268396903</v>
+        <v>1.058894100388177</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046877247202173</v>
+        <v>1.043308723532088</v>
       </c>
       <c r="J24">
-        <v>1.028000077679514</v>
+        <v>1.047980183413597</v>
       </c>
       <c r="K24">
-        <v>1.033808092839122</v>
+        <v>1.048438420265545</v>
       </c>
       <c r="L24">
-        <v>1.025705414083792</v>
+        <v>1.052771406025035</v>
       </c>
       <c r="M24">
-        <v>1.024053541551062</v>
+        <v>1.062186166441486</v>
       </c>
       <c r="N24">
-        <v>1.012439411253615</v>
+        <v>1.019767722891881</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010527722991118</v>
+        <v>1.043708752287248</v>
       </c>
       <c r="D25">
-        <v>1.027843405486317</v>
+        <v>1.046569112847883</v>
       </c>
       <c r="E25">
-        <v>1.020879555520321</v>
+        <v>1.05124285033374</v>
       </c>
       <c r="F25">
-        <v>1.021066202410976</v>
+        <v>1.061117184957667</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050864471686759</v>
+        <v>1.043915109457342</v>
       </c>
       <c r="J25">
-        <v>1.034705908355002</v>
+        <v>1.049254358171599</v>
       </c>
       <c r="K25">
-        <v>1.040024334887138</v>
+        <v>1.049588178082641</v>
       </c>
       <c r="L25">
-        <v>1.0331621647049</v>
+        <v>1.054247625112327</v>
       </c>
       <c r="M25">
-        <v>1.033346063377695</v>
+        <v>1.064092218903546</v>
       </c>
       <c r="N25">
-        <v>1.014770900684891</v>
+        <v>1.020203870985841</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045206739554367</v>
+        <v>1.018146373774159</v>
       </c>
       <c r="D2">
-        <v>1.047739943310706</v>
+        <v>1.033730482374833</v>
       </c>
       <c r="E2">
-        <v>1.052675373424201</v>
+        <v>1.027752269555196</v>
       </c>
       <c r="F2">
-        <v>1.06289267678469</v>
+        <v>1.029370007093362</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044393263772516</v>
+        <v>1.053860130510298</v>
       </c>
       <c r="J2">
-        <v>1.0502677111659</v>
+        <v>1.039797552822483</v>
       </c>
       <c r="K2">
-        <v>1.050501737481981</v>
+        <v>1.044739078111105</v>
       </c>
       <c r="L2">
-        <v>1.05542344964904</v>
+        <v>1.038838050366783</v>
       </c>
       <c r="M2">
-        <v>1.065612792522559</v>
+        <v>1.04043479046862</v>
       </c>
       <c r="N2">
-        <v>1.020550180742235</v>
+        <v>1.016539596648104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046293951998988</v>
+        <v>1.023488241382825</v>
       </c>
       <c r="D3">
-        <v>1.04858944930405</v>
+        <v>1.037862855981996</v>
       </c>
       <c r="E3">
-        <v>1.053715903083421</v>
+        <v>1.032583596742782</v>
       </c>
       <c r="F3">
-        <v>1.06418324364314</v>
+        <v>1.035210911313305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044737263987275</v>
+        <v>1.055936352445309</v>
       </c>
       <c r="J3">
-        <v>1.051001811222613</v>
+        <v>1.043358447926955</v>
       </c>
       <c r="K3">
-        <v>1.051163050957941</v>
+        <v>1.048033153740447</v>
       </c>
       <c r="L3">
-        <v>1.056276288301577</v>
+        <v>1.042815871356366</v>
       </c>
       <c r="M3">
-        <v>1.066717069276222</v>
+        <v>1.045412244283846</v>
       </c>
       <c r="N3">
-        <v>1.020800729508543</v>
+        <v>1.017775432376326</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046997246788493</v>
+        <v>1.026862808189661</v>
       </c>
       <c r="D4">
-        <v>1.049138851339466</v>
+        <v>1.040475084353278</v>
       </c>
       <c r="E4">
-        <v>1.054389381715812</v>
+        <v>1.035641171129012</v>
       </c>
       <c r="F4">
-        <v>1.065018985639093</v>
+        <v>1.038909340303856</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044958384590329</v>
+        <v>1.05723646881756</v>
       </c>
       <c r="J4">
-        <v>1.051476047858435</v>
+        <v>1.045603457179479</v>
       </c>
       <c r="K4">
-        <v>1.051590037097833</v>
+        <v>1.050108371261736</v>
       </c>
       <c r="L4">
-        <v>1.056827714120082</v>
+        <v>1.045327657648998</v>
       </c>
       <c r="M4">
-        <v>1.067431713460054</v>
+        <v>1.048559792411119</v>
       </c>
       <c r="N4">
-        <v>1.020962434311278</v>
+        <v>1.018553994369272</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047292863860734</v>
+        <v>1.028262666631027</v>
       </c>
       <c r="D5">
-        <v>1.049369751732415</v>
+        <v>1.041559060890181</v>
       </c>
       <c r="E5">
-        <v>1.05467255725176</v>
+        <v>1.036910824999791</v>
       </c>
       <c r="F5">
-        <v>1.065370490438074</v>
+        <v>1.040445611002861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045050991798726</v>
+        <v>1.057772996672541</v>
       </c>
       <c r="J5">
-        <v>1.051675231723966</v>
+        <v>1.046533634525654</v>
       </c>
       <c r="K5">
-        <v>1.051769320146046</v>
+        <v>1.050967809847835</v>
       </c>
       <c r="L5">
-        <v>1.05705943401484</v>
+        <v>1.046369320545552</v>
       </c>
       <c r="M5">
-        <v>1.067732175486878</v>
+        <v>1.049866226806395</v>
       </c>
       <c r="N5">
-        <v>1.021030315206699</v>
+        <v>1.018876426575147</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047342496475098</v>
+        <v>1.028496628848701</v>
       </c>
       <c r="D6">
-        <v>1.049408516924979</v>
+        <v>1.041740248192539</v>
       </c>
       <c r="E6">
-        <v>1.054720106330718</v>
+        <v>1.037123100792173</v>
       </c>
       <c r="F6">
-        <v>1.065429518988784</v>
+        <v>1.040702493642275</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045066520325887</v>
+        <v>1.057862502586551</v>
       </c>
       <c r="J6">
-        <v>1.051708664720908</v>
+        <v>1.04668903128715</v>
       </c>
       <c r="K6">
-        <v>1.051799409551207</v>
+        <v>1.051111365698482</v>
       </c>
       <c r="L6">
-        <v>1.057098334983691</v>
+        <v>1.046543398510854</v>
       </c>
       <c r="M6">
-        <v>1.067782625910985</v>
+        <v>1.050084618411276</v>
       </c>
       <c r="N6">
-        <v>1.021041706856003</v>
+        <v>1.018930283440892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04700119702602</v>
+        <v>1.026881586030674</v>
       </c>
       <c r="D7">
-        <v>1.049141936909839</v>
+        <v>1.0404896235898</v>
       </c>
       <c r="E7">
-        <v>1.054393165343264</v>
+        <v>1.035658197328096</v>
       </c>
       <c r="F7">
-        <v>1.065023681837792</v>
+        <v>1.038929939826133</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044959623394885</v>
+        <v>1.057243676955758</v>
       </c>
       <c r="J7">
-        <v>1.051478710090311</v>
+        <v>1.045615939110411</v>
       </c>
       <c r="K7">
-        <v>1.051592433558444</v>
+        <v>1.050119905510917</v>
       </c>
       <c r="L7">
-        <v>1.056830810763063</v>
+        <v>1.045341631812723</v>
       </c>
       <c r="M7">
-        <v>1.06743572814661</v>
+        <v>1.048577314111144</v>
       </c>
       <c r="N7">
-        <v>1.020963341731248</v>
+        <v>1.018558321653149</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045574210926877</v>
+        <v>1.019969164799691</v>
       </c>
       <c r="D8">
-        <v>1.048027096906607</v>
+        <v>1.035140162677189</v>
       </c>
       <c r="E8">
-        <v>1.053026987009093</v>
+        <v>1.029399667359305</v>
       </c>
       <c r="F8">
-        <v>1.063328694127599</v>
+        <v>1.031361272881961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04450982483505</v>
+        <v>1.054570980626906</v>
       </c>
       <c r="J8">
-        <v>1.050515964445542</v>
+        <v>1.041013546785972</v>
       </c>
       <c r="K8">
-        <v>1.050725423725993</v>
+        <v>1.045864280856301</v>
       </c>
       <c r="L8">
-        <v>1.05571175728175</v>
+        <v>1.040195599684826</v>
       </c>
       <c r="M8">
-        <v>1.065985967168878</v>
+        <v>1.042132553226394</v>
       </c>
       <c r="N8">
-        <v>1.020634941230905</v>
+        <v>1.016961733758829</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04305807472065</v>
+        <v>1.007121310244002</v>
       </c>
       <c r="D9">
-        <v>1.046060419947888</v>
+        <v>1.025213985176963</v>
       </c>
       <c r="E9">
-        <v>1.050621010599323</v>
+        <v>1.017813185172305</v>
       </c>
       <c r="F9">
-        <v>1.060346905872601</v>
+        <v>1.017362772843642</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043705952413457</v>
+        <v>1.049513296072157</v>
       </c>
       <c r="J9">
-        <v>1.048813529789904</v>
+        <v>1.032425078832256</v>
       </c>
       <c r="K9">
-        <v>1.049190524858221</v>
+        <v>1.037910812273754</v>
       </c>
       <c r="L9">
-        <v>1.053736619009578</v>
+        <v>1.030623718823615</v>
       </c>
       <c r="M9">
-        <v>1.063432054170899</v>
+        <v>1.030180294903007</v>
       </c>
       <c r="N9">
-        <v>1.020053062416614</v>
+        <v>1.01397811925864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041379514375625</v>
+        <v>0.9980476455796142</v>
       </c>
       <c r="D10">
-        <v>1.044747825365715</v>
+        <v>1.018219325157964</v>
       </c>
       <c r="E10">
-        <v>1.04901793566044</v>
+        <v>1.00966421579714</v>
       </c>
       <c r="F10">
-        <v>1.058362333906462</v>
+        <v>1.007523565154792</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043162448406282</v>
+        <v>1.045883043871666</v>
       </c>
       <c r="J10">
-        <v>1.047674544463745</v>
+        <v>1.026338938895692</v>
       </c>
       <c r="K10">
-        <v>1.048162457411649</v>
+        <v>1.032267235595626</v>
       </c>
       <c r="L10">
-        <v>1.05241765848723</v>
+        <v>1.023861144981665</v>
       </c>
       <c r="M10">
-        <v>1.061729892103281</v>
+        <v>1.02175829512469</v>
       </c>
       <c r="N10">
-        <v>1.019662991978727</v>
+        <v>1.011861607751425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040652396072372</v>
+        <v>0.9939831884139143</v>
       </c>
       <c r="D11">
-        <v>1.044179104780985</v>
+        <v>1.015090878905929</v>
       </c>
       <c r="E11">
-        <v>1.048323993561367</v>
+        <v>1.006022652738941</v>
       </c>
       <c r="F11">
-        <v>1.057503754956346</v>
+        <v>1.003127425469451</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042925302002701</v>
+        <v>1.044243727451822</v>
       </c>
       <c r="J11">
-        <v>1.047180389130922</v>
+        <v>1.02360843380934</v>
       </c>
       <c r="K11">
-        <v>1.047716149533988</v>
+        <v>1.02973370642168</v>
       </c>
       <c r="L11">
-        <v>1.051846003335379</v>
+        <v>1.020831877439543</v>
       </c>
       <c r="M11">
-        <v>1.060992929272824</v>
+        <v>1.01799060314794</v>
       </c>
       <c r="N11">
-        <v>1.019493575957855</v>
+        <v>1.010911684398193</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040382267018086</v>
+        <v>0.992451710075492</v>
       </c>
       <c r="D12">
-        <v>1.043967802461428</v>
+        <v>1.013912894831985</v>
       </c>
       <c r="E12">
-        <v>1.048066261759222</v>
+        <v>1.004651884851029</v>
       </c>
       <c r="F12">
-        <v>1.057184952195822</v>
+        <v>1.001472663586515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042836943654871</v>
+        <v>1.043624115868246</v>
       </c>
       <c r="J12">
-        <v>1.046996691873676</v>
+        <v>1.022578998607202</v>
       </c>
       <c r="K12">
-        <v>1.047550197976879</v>
+        <v>1.028778313243998</v>
       </c>
       <c r="L12">
-        <v>1.051633583723628</v>
+        <v>1.019690501482912</v>
       </c>
       <c r="M12">
-        <v>1.060719199884361</v>
+        <v>1.016571703967938</v>
       </c>
       <c r="N12">
-        <v>1.019430570116187</v>
+        <v>1.01055351026741</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040440212671512</v>
+        <v>0.9927812258560585</v>
       </c>
       <c r="D13">
-        <v>1.044013129982776</v>
+        <v>1.014166314055449</v>
       </c>
       <c r="E13">
-        <v>1.048121544798307</v>
+        <v>1.004946759215114</v>
       </c>
       <c r="F13">
-        <v>1.057253331441032</v>
+        <v>1.001828628697492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042855909117119</v>
+        <v>1.04375751842819</v>
       </c>
       <c r="J13">
-        <v>1.047036102174709</v>
+        <v>1.022800519410184</v>
       </c>
       <c r="K13">
-        <v>1.047585802982856</v>
+        <v>1.028983910864024</v>
       </c>
       <c r="L13">
-        <v>1.051679152149823</v>
+        <v>1.019936079191121</v>
       </c>
       <c r="M13">
-        <v>1.060777915271268</v>
+        <v>1.016876962253711</v>
       </c>
       <c r="N13">
-        <v>1.019444088578029</v>
+        <v>1.010630586209234</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040630068044692</v>
+        <v>0.9938570483424226</v>
       </c>
       <c r="D14">
-        <v>1.044161639572271</v>
+        <v>1.014993837388872</v>
       </c>
       <c r="E14">
-        <v>1.048302688779606</v>
+        <v>1.005909721489831</v>
       </c>
       <c r="F14">
-        <v>1.057477400351303</v>
+        <v>1.002991096729494</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042918003816966</v>
+        <v>1.044192731854495</v>
       </c>
       <c r="J14">
-        <v>1.047165207639773</v>
+        <v>1.02352365606047</v>
       </c>
       <c r="K14">
-        <v>1.047702435457218</v>
+        <v>1.029655030680938</v>
       </c>
       <c r="L14">
-        <v>1.051828446330046</v>
+        <v>1.020737866887715</v>
       </c>
       <c r="M14">
-        <v>1.060970302490661</v>
+        <v>1.017873720067431</v>
       </c>
       <c r="N14">
-        <v>1.019488369450662</v>
+        <v>1.010882188199256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040747038212563</v>
+        <v>0.9945169708988562</v>
       </c>
       <c r="D15">
-        <v>1.044253134043947</v>
+        <v>1.015501559524312</v>
       </c>
       <c r="E15">
-        <v>1.048414301407793</v>
+        <v>1.006500595858592</v>
       </c>
       <c r="F15">
-        <v>1.057615471355412</v>
+        <v>1.003704391980263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042956226408992</v>
+        <v>1.044459445871947</v>
       </c>
       <c r="J15">
-        <v>1.04724473441642</v>
+        <v>1.023967161255072</v>
       </c>
       <c r="K15">
-        <v>1.047774273643415</v>
+        <v>1.0300666050391</v>
       </c>
       <c r="L15">
-        <v>1.051920420586109</v>
+        <v>1.021229700727614</v>
       </c>
       <c r="M15">
-        <v>1.061088840080887</v>
+        <v>1.018485244219599</v>
       </c>
       <c r="N15">
-        <v>1.019515642125841</v>
+        <v>1.011036492642418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041427764590702</v>
+        <v>0.9983144186731984</v>
       </c>
       <c r="D16">
-        <v>1.044785561898453</v>
+        <v>1.018424769026214</v>
       </c>
       <c r="E16">
-        <v>1.049063994452212</v>
+        <v>1.009903417458668</v>
       </c>
       <c r="F16">
-        <v>1.05841933071231</v>
+        <v>1.007812342403834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043178148960976</v>
+        <v>1.045990372372093</v>
       </c>
       <c r="J16">
-        <v>1.047707319492427</v>
+        <v>1.026518072928591</v>
       </c>
       <c r="K16">
-        <v>1.048192053169799</v>
+        <v>1.032433415692097</v>
       </c>
       <c r="L16">
-        <v>1.052455585982146</v>
+        <v>1.024059976187567</v>
       </c>
       <c r="M16">
-        <v>1.061778803571326</v>
+        <v>1.022005693208701</v>
       </c>
       <c r="N16">
-        <v>1.019674224744315</v>
+        <v>1.011923920788404</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04185468755737</v>
+        <v>1.000659230033976</v>
       </c>
       <c r="D17">
-        <v>1.045119443630931</v>
+        <v>1.02023107393273</v>
       </c>
       <c r="E17">
-        <v>1.049471582664531</v>
+        <v>1.01200688115582</v>
       </c>
       <c r="F17">
-        <v>1.058923771163182</v>
+        <v>1.010351835464265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043316871464991</v>
+        <v>1.046932251186952</v>
       </c>
       <c r="J17">
-        <v>1.047997227486586</v>
+        <v>1.028092098554287</v>
       </c>
       <c r="K17">
-        <v>1.048453807567172</v>
+        <v>1.033893440011527</v>
       </c>
       <c r="L17">
-        <v>1.052791136866147</v>
+        <v>1.025807611260837</v>
       </c>
       <c r="M17">
-        <v>1.062211621176142</v>
+        <v>1.024180761789375</v>
       </c>
       <c r="N17">
-        <v>1.019773562013558</v>
+        <v>1.012471416968423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042103676548579</v>
+        <v>1.002013946029909</v>
       </c>
       <c r="D18">
-        <v>1.045314156631049</v>
+        <v>1.021275109300838</v>
       </c>
       <c r="E18">
-        <v>1.049709341319932</v>
+        <v>1.013222975504441</v>
       </c>
       <c r="F18">
-        <v>1.059218075579955</v>
+        <v>1.011820090703506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043397611765371</v>
+        <v>1.047475171869547</v>
       </c>
       <c r="J18">
-        <v>1.048166232641035</v>
+        <v>1.02900108422439</v>
       </c>
       <c r="K18">
-        <v>1.048606373756444</v>
+        <v>1.034736440856942</v>
       </c>
       <c r="L18">
-        <v>1.052986806306676</v>
+        <v>1.026817300996818</v>
       </c>
       <c r="M18">
-        <v>1.062464084609166</v>
+        <v>1.025437866157156</v>
       </c>
       <c r="N18">
-        <v>1.019831454278427</v>
+        <v>1.012787555690934</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042188570657927</v>
+        <v>1.002473709266892</v>
       </c>
       <c r="D19">
-        <v>1.045380542878882</v>
+        <v>1.021629506021814</v>
       </c>
       <c r="E19">
-        <v>1.049790414184472</v>
+        <v>1.013635830246614</v>
       </c>
       <c r="F19">
-        <v>1.059318438182337</v>
+        <v>1.012318566811659</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043425112586299</v>
+        <v>1.047659214382724</v>
       </c>
       <c r="J19">
-        <v>1.048223843230366</v>
+        <v>1.029309504702869</v>
       </c>
       <c r="K19">
-        <v>1.048658376118548</v>
+        <v>1.035022446628587</v>
       </c>
       <c r="L19">
-        <v>1.053053515783025</v>
+        <v>1.027159966577348</v>
       </c>
       <c r="M19">
-        <v>1.062550169553524</v>
+        <v>1.025864578738278</v>
       </c>
       <c r="N19">
-        <v>1.019851185655148</v>
+        <v>1.012894815720662</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041808885663695</v>
+        <v>1.000409005524649</v>
       </c>
       <c r="D20">
-        <v>1.045083624858285</v>
+        <v>1.020038269156381</v>
       </c>
       <c r="E20">
-        <v>1.049427850311506</v>
+        <v>1.011782326615104</v>
       </c>
       <c r="F20">
-        <v>1.05886964195403</v>
+        <v>1.010080725397406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043302005872786</v>
+        <v>1.04683186879509</v>
       </c>
       <c r="J20">
-        <v>1.047966132754815</v>
+        <v>1.027924169794354</v>
       </c>
       <c r="K20">
-        <v>1.048425735253415</v>
+        <v>1.033737689229024</v>
       </c>
       <c r="L20">
-        <v>1.052755140786642</v>
+        <v>1.02562111431013</v>
       </c>
       <c r="M20">
-        <v>1.062165183099369</v>
+        <v>1.023948603555907</v>
       </c>
       <c r="N20">
-        <v>1.019762909183858</v>
+        <v>1.012413009583807</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04057416162022</v>
+        <v>0.9935408579476016</v>
       </c>
       <c r="D21">
-        <v>1.04411790869764</v>
+        <v>1.014750600538157</v>
       </c>
       <c r="E21">
-        <v>1.048249345592985</v>
+        <v>1.005626663318462</v>
       </c>
       <c r="F21">
-        <v>1.057411414571351</v>
+        <v>1.002649394082697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042899725976206</v>
+        <v>1.044064872467674</v>
       </c>
       <c r="J21">
-        <v>1.047127193332802</v>
+        <v>1.023311137732643</v>
       </c>
       <c r="K21">
-        <v>1.047668094878364</v>
+        <v>1.029457805194913</v>
       </c>
       <c r="L21">
-        <v>1.051784485169682</v>
+        <v>1.020502215215335</v>
       </c>
       <c r="M21">
-        <v>1.060913648944758</v>
+        <v>1.017580746125951</v>
       </c>
       <c r="N21">
-        <v>1.019475331969113</v>
+        <v>1.010808247398598</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039797580954727</v>
+        <v>0.9890959066974475</v>
       </c>
       <c r="D22">
-        <v>1.043510411036074</v>
+        <v>1.011333271825982</v>
       </c>
       <c r="E22">
-        <v>1.047508541373493</v>
+        <v>1.001650816033487</v>
       </c>
       <c r="F22">
-        <v>1.056495214568705</v>
+        <v>0.9978498439721361</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042645224988807</v>
+        <v>1.042262944278894</v>
       </c>
       <c r="J22">
-        <v>1.046598873989195</v>
+        <v>1.020322265688638</v>
       </c>
       <c r="K22">
-        <v>1.047190735489253</v>
+        <v>1.026683508800333</v>
       </c>
       <c r="L22">
-        <v>1.051173723888449</v>
+        <v>1.017189640718455</v>
       </c>
       <c r="M22">
-        <v>1.060126825184279</v>
+        <v>1.013464016551467</v>
       </c>
       <c r="N22">
-        <v>1.019294074111159</v>
+        <v>1.009768259666159</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040209286194477</v>
+        <v>0.9914647684735526</v>
       </c>
       <c r="D23">
-        <v>1.043832486871297</v>
+        <v>1.013153998090521</v>
       </c>
       <c r="E23">
-        <v>1.047901240020433</v>
+        <v>1.003768903580224</v>
       </c>
       <c r="F23">
-        <v>1.056980848867402</v>
+        <v>1.000406751577908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042780289867602</v>
+        <v>1.043224281526283</v>
       </c>
       <c r="J23">
-        <v>1.046879026369832</v>
+        <v>1.021915434150316</v>
       </c>
       <c r="K23">
-        <v>1.047443887760636</v>
+        <v>1.028162415619188</v>
       </c>
       <c r="L23">
-        <v>1.051497544975125</v>
+        <v>1.018954975841267</v>
       </c>
       <c r="M23">
-        <v>1.060543929574195</v>
+        <v>1.015657530168427</v>
       </c>
       <c r="N23">
-        <v>1.01939020470984</v>
+        <v>1.010322624771189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041829581653904</v>
+        <v>1.00052211119612</v>
       </c>
       <c r="D24">
-        <v>1.045099809926452</v>
+        <v>1.020125418782776</v>
       </c>
       <c r="E24">
-        <v>1.049447611019322</v>
+        <v>1.011883826499873</v>
       </c>
       <c r="F24">
-        <v>1.058894100388177</v>
+        <v>1.010203268396903</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043308723532088</v>
+        <v>1.046877247202173</v>
       </c>
       <c r="J24">
-        <v>1.047980183413597</v>
+        <v>1.028000077679515</v>
       </c>
       <c r="K24">
-        <v>1.048438420265545</v>
+        <v>1.033808092839122</v>
       </c>
       <c r="L24">
-        <v>1.052771406025035</v>
+        <v>1.025705414083792</v>
       </c>
       <c r="M24">
-        <v>1.062186166441486</v>
+        <v>1.024053541551062</v>
       </c>
       <c r="N24">
-        <v>1.019767722891881</v>
+        <v>1.012439411253615</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043708752287248</v>
+        <v>1.010527722991119</v>
       </c>
       <c r="D25">
-        <v>1.046569112847883</v>
+        <v>1.027843405486319</v>
       </c>
       <c r="E25">
-        <v>1.05124285033374</v>
+        <v>1.020879555520323</v>
       </c>
       <c r="F25">
-        <v>1.061117184957667</v>
+        <v>1.021066202410978</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043915109457342</v>
+        <v>1.05086447168676</v>
       </c>
       <c r="J25">
-        <v>1.049254358171599</v>
+        <v>1.034705908355004</v>
       </c>
       <c r="K25">
-        <v>1.049588178082641</v>
+        <v>1.040024334887139</v>
       </c>
       <c r="L25">
-        <v>1.054247625112327</v>
+        <v>1.033162164704902</v>
       </c>
       <c r="M25">
-        <v>1.064092218903546</v>
+        <v>1.033346063377697</v>
       </c>
       <c r="N25">
-        <v>1.020203870985841</v>
+        <v>1.014770900684891</v>
       </c>
     </row>
   </sheetData>
